--- a/datos_encoded.xlsx
+++ b/datos_encoded.xlsx
@@ -94403,7 +94403,7 @@
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>1</v>
+        <v>1032</v>
       </c>
       <c r="B1033" t="n">
         <v>22</v>
@@ -94494,7 +94494,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2</v>
+        <v>1033</v>
       </c>
       <c r="B1034" t="n">
         <v>21</v>
@@ -94585,7 +94585,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>3</v>
+        <v>1034</v>
       </c>
       <c r="B1035" t="n">
         <v>20</v>
@@ -94676,7 +94676,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="B1036" t="n">
         <v>20</v>
@@ -94767,7 +94767,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>5</v>
+        <v>1036</v>
       </c>
       <c r="B1037" t="n">
         <v>22</v>
@@ -94858,7 +94858,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>6</v>
+        <v>1037</v>
       </c>
       <c r="B1038" t="n">
         <v>22</v>
@@ -94949,7 +94949,7 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>7</v>
+        <v>1038</v>
       </c>
       <c r="B1039" t="n">
         <v>21</v>
@@ -95040,7 +95040,7 @@
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>8</v>
+        <v>1039</v>
       </c>
       <c r="B1040" t="n">
         <v>22</v>
@@ -95131,7 +95131,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>9</v>
+        <v>1040</v>
       </c>
       <c r="B1041" t="n">
         <v>21</v>
@@ -95222,7 +95222,7 @@
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>10</v>
+        <v>1041</v>
       </c>
       <c r="B1042" t="n">
         <v>22</v>
@@ -95313,7 +95313,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>11</v>
+        <v>1042</v>
       </c>
       <c r="B1043" t="n">
         <v>21</v>
@@ -95404,7 +95404,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>12</v>
+        <v>1043</v>
       </c>
       <c r="B1044" t="n">
         <v>21</v>
@@ -95495,7 +95495,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>13</v>
+        <v>1044</v>
       </c>
       <c r="B1045" t="n">
         <v>21</v>
@@ -95586,7 +95586,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>14</v>
+        <v>1045</v>
       </c>
       <c r="B1046" t="n">
         <v>20</v>
@@ -95677,7 +95677,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>15</v>
+        <v>1046</v>
       </c>
       <c r="B1047" t="n">
         <v>21</v>
@@ -95768,7 +95768,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>16</v>
+        <v>1047</v>
       </c>
       <c r="B1048" t="n">
         <v>20</v>
@@ -95859,7 +95859,7 @@
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>17</v>
+        <v>1048</v>
       </c>
       <c r="B1049" t="n">
         <v>23</v>
@@ -95950,7 +95950,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>18</v>
+        <v>1049</v>
       </c>
       <c r="B1050" t="n">
         <v>21</v>
@@ -96041,7 +96041,7 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>19</v>
+        <v>1050</v>
       </c>
       <c r="B1051" t="n">
         <v>20</v>
@@ -96132,7 +96132,7 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>20</v>
+        <v>1051</v>
       </c>
       <c r="B1052" t="n">
         <v>16</v>
@@ -96223,7 +96223,7 @@
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>21</v>
+        <v>1052</v>
       </c>
       <c r="B1053" t="n">
         <v>21</v>
@@ -96314,7 +96314,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>22</v>
+        <v>1053</v>
       </c>
       <c r="B1054" t="n">
         <v>35</v>
@@ -96405,7 +96405,7 @@
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>23</v>
+        <v>1054</v>
       </c>
       <c r="B1055" t="n">
         <v>32</v>
@@ -96496,7 +96496,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>24</v>
+        <v>1055</v>
       </c>
       <c r="B1056" t="n">
         <v>20</v>
@@ -96587,7 +96587,7 @@
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>25</v>
+        <v>1056</v>
       </c>
       <c r="B1057" t="n">
         <v>22</v>
@@ -96678,7 +96678,7 @@
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>26</v>
+        <v>1057</v>
       </c>
       <c r="B1058" t="n">
         <v>21</v>
@@ -96769,7 +96769,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>27</v>
+        <v>1058</v>
       </c>
       <c r="B1059" t="n">
         <v>21</v>
@@ -96860,7 +96860,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>28</v>
+        <v>1059</v>
       </c>
       <c r="B1060" t="n">
         <v>21</v>
@@ -96951,7 +96951,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>29</v>
+        <v>1060</v>
       </c>
       <c r="B1061" t="n">
         <v>21</v>
@@ -97042,7 +97042,7 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>30</v>
+        <v>1061</v>
       </c>
       <c r="B1062" t="n">
         <v>19</v>
@@ -97133,7 +97133,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>31</v>
+        <v>1062</v>
       </c>
       <c r="B1063" t="n">
         <v>21</v>
@@ -97224,7 +97224,7 @@
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>32</v>
+        <v>1063</v>
       </c>
       <c r="B1064" t="n">
         <v>24</v>
@@ -97315,7 +97315,7 @@
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>33</v>
+        <v>1064</v>
       </c>
       <c r="B1065" t="n">
         <v>20</v>
@@ -97406,7 +97406,7 @@
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>34</v>
+        <v>1065</v>
       </c>
       <c r="B1066" t="n">
         <v>20</v>
@@ -97497,7 +97497,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>35</v>
+        <v>1066</v>
       </c>
       <c r="B1067" t="n">
         <v>21</v>
@@ -97588,7 +97588,7 @@
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>36</v>
+        <v>1067</v>
       </c>
       <c r="B1068" t="n">
         <v>13</v>
@@ -97679,7 +97679,7 @@
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>37</v>
+        <v>1068</v>
       </c>
       <c r="B1069" t="n">
         <v>13</v>
@@ -97770,7 +97770,7 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>38</v>
+        <v>1069</v>
       </c>
       <c r="B1070" t="n">
         <v>20</v>
@@ -97861,7 +97861,7 @@
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>39</v>
+        <v>1070</v>
       </c>
       <c r="B1071" t="n">
         <v>26</v>
@@ -97952,7 +97952,7 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>40</v>
+        <v>1071</v>
       </c>
       <c r="B1072" t="n">
         <v>21</v>
@@ -98043,7 +98043,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>41</v>
+        <v>1072</v>
       </c>
       <c r="B1073" t="n">
         <v>20</v>
@@ -98134,7 +98134,7 @@
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>42</v>
+        <v>1073</v>
       </c>
       <c r="B1074" t="n">
         <v>21</v>
@@ -98225,7 +98225,7 @@
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>43</v>
+        <v>1074</v>
       </c>
       <c r="B1075" t="n">
         <v>31</v>
@@ -98316,7 +98316,7 @@
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>44</v>
+        <v>1075</v>
       </c>
       <c r="B1076" t="n">
         <v>10</v>
@@ -98407,7 +98407,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>45</v>
+        <v>1076</v>
       </c>
       <c r="B1077" t="n">
         <v>23</v>
@@ -98498,7 +98498,7 @@
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>46</v>
+        <v>1077</v>
       </c>
       <c r="B1078" t="n">
         <v>21</v>
@@ -98589,7 +98589,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>47</v>
+        <v>1078</v>
       </c>
       <c r="B1079" t="n">
         <v>35</v>
@@ -98680,7 +98680,7 @@
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>48</v>
+        <v>1079</v>
       </c>
       <c r="B1080" t="n">
         <v>27</v>
@@ -98771,7 +98771,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>49</v>
+        <v>1080</v>
       </c>
       <c r="B1081" t="n">
         <v>35</v>
@@ -98862,7 +98862,7 @@
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>50</v>
+        <v>1081</v>
       </c>
       <c r="B1082" t="n">
         <v>27</v>
@@ -98953,7 +98953,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>51</v>
+        <v>1082</v>
       </c>
       <c r="B1083" t="n">
         <v>30</v>
@@ -99044,7 +99044,7 @@
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>52</v>
+        <v>1083</v>
       </c>
       <c r="B1084" t="n">
         <v>33</v>
@@ -99135,7 +99135,7 @@
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>53</v>
+        <v>1084</v>
       </c>
       <c r="B1085" t="n">
         <v>33</v>
@@ -99226,7 +99226,7 @@
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>54</v>
+        <v>1085</v>
       </c>
       <c r="B1086" t="n">
         <v>69</v>
@@ -99317,7 +99317,7 @@
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>55</v>
+        <v>1086</v>
       </c>
       <c r="B1087" t="n">
         <v>56</v>
@@ -99408,7 +99408,7 @@
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>56</v>
+        <v>1087</v>
       </c>
       <c r="B1088" t="n">
         <v>31</v>
@@ -99499,7 +99499,7 @@
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>57</v>
+        <v>1088</v>
       </c>
       <c r="B1089" t="n">
         <v>54</v>
@@ -99590,7 +99590,7 @@
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>58</v>
+        <v>1089</v>
       </c>
       <c r="B1090" t="n">
         <v>69</v>
@@ -99681,7 +99681,7 @@
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>59</v>
+        <v>1090</v>
       </c>
       <c r="B1091" t="n">
         <v>37</v>
@@ -99772,7 +99772,7 @@
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>60</v>
+        <v>1091</v>
       </c>
       <c r="B1092" t="n">
         <v>37</v>
@@ -99863,7 +99863,7 @@
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>61</v>
+        <v>1092</v>
       </c>
       <c r="B1093" t="n">
         <v>44</v>
@@ -99954,7 +99954,7 @@
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>62</v>
+        <v>1093</v>
       </c>
       <c r="B1094" t="n">
         <v>51</v>
@@ -100045,7 +100045,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>63</v>
+        <v>1094</v>
       </c>
       <c r="B1095" t="n">
         <v>20</v>
@@ -100136,7 +100136,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>64</v>
+        <v>1095</v>
       </c>
       <c r="B1096" t="n">
         <v>18</v>
@@ -100227,7 +100227,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>65</v>
+        <v>1096</v>
       </c>
       <c r="B1097" t="n">
         <v>37</v>
@@ -100318,7 +100318,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>66</v>
+        <v>1097</v>
       </c>
       <c r="B1098" t="n">
         <v>53</v>
@@ -100409,7 +100409,7 @@
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>67</v>
+        <v>1098</v>
       </c>
       <c r="B1099" t="n">
         <v>42</v>
@@ -100500,7 +100500,7 @@
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>68</v>
+        <v>1099</v>
       </c>
       <c r="B1100" t="n">
         <v>33</v>
@@ -100591,7 +100591,7 @@
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>69</v>
+        <v>1100</v>
       </c>
       <c r="B1101" t="n">
         <v>20</v>
@@ -100682,7 +100682,7 @@
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>70</v>
+        <v>1101</v>
       </c>
       <c r="B1102" t="n">
         <v>38</v>
@@ -100773,7 +100773,7 @@
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>71</v>
+        <v>1102</v>
       </c>
       <c r="B1103" t="n">
         <v>21</v>
@@ -100864,7 +100864,7 @@
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>72</v>
+        <v>1103</v>
       </c>
       <c r="B1104" t="n">
         <v>34</v>
@@ -100955,7 +100955,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>73</v>
+        <v>1104</v>
       </c>
       <c r="B1105" t="n">
         <v>20</v>
@@ -101046,7 +101046,7 @@
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>74</v>
+        <v>1105</v>
       </c>
       <c r="B1106" t="n">
         <v>19</v>
@@ -101137,7 +101137,7 @@
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>75</v>
+        <v>1106</v>
       </c>
       <c r="B1107" t="n">
         <v>37</v>
@@ -101228,7 +101228,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>76</v>
+        <v>1107</v>
       </c>
       <c r="B1108" t="n">
         <v>44</v>
@@ -101319,7 +101319,7 @@
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>77</v>
+        <v>1108</v>
       </c>
       <c r="B1109" t="n">
         <v>25</v>
@@ -101410,7 +101410,7 @@
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>78</v>
+        <v>1109</v>
       </c>
       <c r="B1110" t="n">
         <v>21</v>
@@ -101501,7 +101501,7 @@
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>79</v>
+        <v>1110</v>
       </c>
       <c r="B1111" t="n">
         <v>20</v>
@@ -101592,7 +101592,7 @@
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>80</v>
+        <v>1111</v>
       </c>
       <c r="B1112" t="n">
         <v>63</v>
@@ -101683,7 +101683,7 @@
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>81</v>
+        <v>1112</v>
       </c>
       <c r="B1113" t="n">
         <v>26</v>
@@ -101774,7 +101774,7 @@
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>82</v>
+        <v>1113</v>
       </c>
       <c r="B1114" t="n">
         <v>41</v>
@@ -101865,7 +101865,7 @@
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>83</v>
+        <v>1114</v>
       </c>
       <c r="B1115" t="n">
         <v>45</v>
@@ -101956,7 +101956,7 @@
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>84</v>
+        <v>1115</v>
       </c>
       <c r="B1116" t="n">
         <v>60</v>
@@ -102047,7 +102047,7 @@
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>85</v>
+        <v>1116</v>
       </c>
       <c r="B1117" t="n">
         <v>52</v>
@@ -102138,7 +102138,7 @@
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>86</v>
+        <v>1117</v>
       </c>
       <c r="B1118" t="n">
         <v>21</v>
@@ -102229,7 +102229,7 @@
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>87</v>
+        <v>1118</v>
       </c>
       <c r="B1119" t="n">
         <v>35</v>
@@ -102320,7 +102320,7 @@
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>88</v>
+        <v>1119</v>
       </c>
       <c r="B1120" t="n">
         <v>48</v>
@@ -102411,7 +102411,7 @@
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>89</v>
+        <v>1120</v>
       </c>
       <c r="B1121" t="n">
         <v>21</v>
@@ -102502,7 +102502,7 @@
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>90</v>
+        <v>1121</v>
       </c>
       <c r="B1122" t="n">
         <v>21</v>
@@ -102593,7 +102593,7 @@
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>91</v>
+        <v>1122</v>
       </c>
       <c r="B1123" t="n">
         <v>38</v>
@@ -102684,7 +102684,7 @@
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>92</v>
+        <v>1123</v>
       </c>
       <c r="B1124" t="n">
         <v>16</v>
@@ -102775,7 +102775,7 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>93</v>
+        <v>1124</v>
       </c>
       <c r="B1125" t="n">
         <v>35</v>
@@ -102866,7 +102866,7 @@
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>94</v>
+        <v>1125</v>
       </c>
       <c r="B1126" t="n">
         <v>20</v>
@@ -102957,7 +102957,7 @@
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>95</v>
+        <v>1126</v>
       </c>
       <c r="B1127" t="n">
         <v>38</v>
@@ -103048,7 +103048,7 @@
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>96</v>
+        <v>1127</v>
       </c>
       <c r="B1128" t="n">
         <v>48</v>
@@ -103139,7 +103139,7 @@
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>97</v>
+        <v>1128</v>
       </c>
       <c r="B1129" t="n">
         <v>20</v>
@@ -103230,7 +103230,7 @@
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>98</v>
+        <v>1129</v>
       </c>
       <c r="B1130" t="n">
         <v>20</v>
@@ -103321,7 +103321,7 @@
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>99</v>
+        <v>1130</v>
       </c>
       <c r="B1131" t="n">
         <v>48</v>
@@ -103412,7 +103412,7 @@
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>100</v>
+        <v>1131</v>
       </c>
       <c r="B1132" t="n">
         <v>44</v>
@@ -103503,7 +103503,7 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>101</v>
+        <v>1132</v>
       </c>
       <c r="B1133" t="n">
         <v>44</v>
@@ -103594,7 +103594,7 @@
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>102</v>
+        <v>1133</v>
       </c>
       <c r="B1134" t="n">
         <v>41</v>
@@ -103685,7 +103685,7 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>103</v>
+        <v>1134</v>
       </c>
       <c r="B1135" t="n">
         <v>20</v>
@@ -103776,7 +103776,7 @@
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>104</v>
+        <v>1135</v>
       </c>
       <c r="B1136" t="n">
         <v>32</v>
@@ -103867,7 +103867,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>105</v>
+        <v>1136</v>
       </c>
       <c r="B1137" t="n">
         <v>45</v>
@@ -103958,7 +103958,7 @@
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>106</v>
+        <v>1137</v>
       </c>
       <c r="B1138" t="n">
         <v>21</v>
@@ -104049,7 +104049,7 @@
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>107</v>
+        <v>1138</v>
       </c>
       <c r="B1139" t="n">
         <v>17</v>
@@ -104140,7 +104140,7 @@
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>108</v>
+        <v>1139</v>
       </c>
       <c r="B1140" t="n">
         <v>30</v>
@@ -104231,7 +104231,7 @@
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>109</v>
+        <v>1140</v>
       </c>
       <c r="B1141" t="n">
         <v>42</v>
@@ -104322,7 +104322,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>110</v>
+        <v>1141</v>
       </c>
       <c r="B1142" t="n">
         <v>33</v>
@@ -104413,7 +104413,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>111</v>
+        <v>1142</v>
       </c>
       <c r="B1143" t="n">
         <v>23</v>
@@ -104504,7 +104504,7 @@
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>112</v>
+        <v>1143</v>
       </c>
       <c r="B1144" t="n">
         <v>35</v>
@@ -104595,7 +104595,7 @@
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>113</v>
+        <v>1144</v>
       </c>
       <c r="B1145" t="n">
         <v>20</v>
@@ -104686,7 +104686,7 @@
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>114</v>
+        <v>1145</v>
       </c>
       <c r="B1146" t="n">
         <v>49</v>
@@ -104777,7 +104777,7 @@
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>115</v>
+        <v>1146</v>
       </c>
       <c r="B1147" t="n">
         <v>40</v>
@@ -104868,7 +104868,7 @@
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>116</v>
+        <v>1147</v>
       </c>
       <c r="B1148" t="n">
         <v>31</v>
@@ -104959,7 +104959,7 @@
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>117</v>
+        <v>1148</v>
       </c>
       <c r="B1149" t="n">
         <v>35</v>
@@ -105050,7 +105050,7 @@
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>118</v>
+        <v>1149</v>
       </c>
       <c r="B1150" t="n">
         <v>21</v>
@@ -105141,7 +105141,7 @@
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>119</v>
+        <v>1150</v>
       </c>
       <c r="B1151" t="n">
         <v>21</v>
@@ -105232,7 +105232,7 @@
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>120</v>
+        <v>1151</v>
       </c>
       <c r="B1152" t="n">
         <v>66</v>
@@ -105323,7 +105323,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>121</v>
+        <v>1152</v>
       </c>
       <c r="B1153" t="n">
         <v>19</v>
@@ -105414,7 +105414,7 @@
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>122</v>
+        <v>1153</v>
       </c>
       <c r="B1154" t="n">
         <v>33</v>
@@ -105505,7 +105505,7 @@
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>123</v>
+        <v>1154</v>
       </c>
       <c r="B1155" t="n">
         <v>22</v>
@@ -105596,7 +105596,7 @@
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>124</v>
+        <v>1155</v>
       </c>
       <c r="B1156" t="n">
         <v>33</v>
@@ -105687,7 +105687,7 @@
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>125</v>
+        <v>1156</v>
       </c>
       <c r="B1157" t="n">
         <v>23</v>
@@ -105778,7 +105778,7 @@
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>126</v>
+        <v>1157</v>
       </c>
       <c r="B1158" t="n">
         <v>41</v>
